--- a/misc/voltperval..xlsx
+++ b/misc/voltperval..xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,33 +21,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Theoretical Voltage/value</t>
   </si>
   <si>
-    <t xml:space="preserve">vamped</t>
+    <t xml:space="preserve">Actual Reading</t>
   </si>
   <si>
-    <t xml:space="preserve">vout</t>
+    <t xml:space="preserve">Voutput</t>
   </si>
   <si>
-    <t xml:space="preserve">vin</t>
+    <t xml:space="preserve">Vmid</t>
   </si>
   <si>
-    <t xml:space="preserve">r2</t>
+    <t xml:space="preserve">Vinput</t>
   </si>
   <si>
-    <t xml:space="preserve">rwb</t>
+    <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">rpot</t>
+    <t xml:space="preserve">Rwb</t>
   </si>
   <si>
-    <t xml:space="preserve">raw</t>
+    <t xml:space="preserve">Rpot</t>
   </si>
   <si>
-    <t xml:space="preserve">potval</t>
+    <t xml:space="preserve">Raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pot Value</t>
   </si>
 </sst>
 </file>
@@ -56,11 +60,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -76,6 +81,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,9 +137,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -138,23 +159,1960 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Theory vs Practice Motor Votlage/Value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.4398711524696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3797423049392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3196134574087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.2594846098783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.1993557623479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.1392269148175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.079098067287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0189692197566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9588403722262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.89871152469578</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.83858267716535</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.77845382963493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.71832498210451</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.65819613457409</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.59806728704367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.53793843951324</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.47780959198282</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4176807444524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.35755189692197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.29742304939155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.23729420186113</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.17716535433071</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.11703650680028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.05690765926986</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.99677881173944</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.93664996420902</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8765211166786</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.81639226914817</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.75626342161775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.69613457408733</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.63600572655691</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.57587687902648</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.51574803149606</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.45561918396564</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.39549033643522</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.33536148890479</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.27523264137437</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.21510379384395</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.15497494631353</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.09484609878311</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.03471725125268</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.97458840372226</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.91445955619184</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.85433070866142</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.79420186113099</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.73407301360057</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.67394416607015</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.61381531853973</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.5536864710093</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.49355762347888</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.43342877594846</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.37329992841804</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.31317108088761</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.25304223335719</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.19291338582677</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.13278453829635</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.07265569076593</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.0125268432355</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.95239799570508</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.89226914817466</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.83214030064424</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.77201145311381</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.71188260558339</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.65175375805297</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.59162491052255</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.53149606299213</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.4713672154617</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.41123836793128</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.35110952040086</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.29098067287044</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.23085182534001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.17072297780959</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.11059413027917</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.05046528274875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.99033643521832</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.9302075876879</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.87007874015748</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.80994989262706</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.74982104509664</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.68969219756621</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.62956335003579</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.56943450250537</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.50930565497495</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.44917680744452</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.3890479599141</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.32891911238368</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.26879026485326</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.20866141732283</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.14853256979241</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.08840372226199</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.02827487473157</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.96814602720115</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.90801717967072</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.8478883321403</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.78775948460988</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.72763063707946</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.66750178954903</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.60737294201861</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.54724409448819</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.48711524695777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.42698639942734</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.36685755189692</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.3067287043665</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.24659985683608</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.18647100930566</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.12634216177523</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.06621331424481</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.00608446671439</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.94595561918397</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.88582677165354</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.82569792412312</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.7655690765927</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.70544022906228</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.64531138153185</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.58518253400143</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.52505368647101</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.46492483894059</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.40479599141016</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.34466714387974</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.28453829634932</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.2244094488189</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.16428060128848</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.10415175375805</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.04402290622763</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.98389405869721</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.92376521116678</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.86363636363636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.11</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.77</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.35</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.23</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.53</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.47</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="91591814"/>
+        <c:axId val="36354108"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91591814"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36354108"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="36354108"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91591814"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>470880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="6528600" cy="4208040"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.54081632653061"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="77" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M130"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,34 +2126,56 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="J2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="K2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="L2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">B3*2.1</f>
         <v>10.5</v>
@@ -224,8 +2204,11 @@
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">B4*2.1</f>
         <v>10.4398711524696</v>
@@ -254,8 +2237,11 @@
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">B5*2.1</f>
         <v>10.3797423049392</v>
@@ -284,8 +2270,11 @@
       <c r="H5" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">B6*2.1</f>
         <v>10.3196134574087</v>
@@ -314,8 +2303,11 @@
       <c r="H6" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">B7*2.1</f>
         <v>10.2594846098783</v>
@@ -344,8 +2336,11 @@
       <c r="H7" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="n">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">B8*2.1</f>
         <v>10.1993557623479</v>
@@ -374,8 +2369,11 @@
       <c r="H8" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">B9*2.1</f>
         <v>10.1392269148175</v>
@@ -404,8 +2402,11 @@
       <c r="H9" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <f aca="false">B10*2.1</f>
         <v>10.079098067287</v>
@@ -434,8 +2435,11 @@
       <c r="H10" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="0" t="n">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <f aca="false">B11*2.1</f>
         <v>10.0189692197566</v>
@@ -464,8 +2468,11 @@
       <c r="H11" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">B12*2.1</f>
         <v>9.9588403722262</v>
@@ -494,8 +2501,11 @@
       <c r="H12" s="0" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">B13*2.1</f>
         <v>9.89871152469578</v>
@@ -524,8 +2534,11 @@
       <c r="H13" s="0" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0" t="n">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">B14*2.1</f>
         <v>9.83858267716535</v>
@@ -554,8 +2567,11 @@
       <c r="H14" s="0" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="n">
+        <v>9.79</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">B15*2.1</f>
         <v>9.77845382963493</v>
@@ -584,8 +2600,11 @@
       <c r="H15" s="0" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="n">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">B16*2.1</f>
         <v>9.71832498210451</v>
@@ -614,8 +2633,11 @@
       <c r="H16" s="0" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="0" t="n">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">B17*2.1</f>
         <v>9.65819613457409</v>
@@ -644,8 +2666,11 @@
       <c r="H17" s="0" t="n">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="0" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">B18*2.1</f>
         <v>9.59806728704367</v>
@@ -674,8 +2699,11 @@
       <c r="H18" s="0" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="0" t="n">
+        <v>9.53</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">B19*2.1</f>
         <v>9.53793843951324</v>
@@ -704,8 +2732,11 @@
       <c r="H19" s="0" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="0" t="n">
+        <v>9.46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <f aca="false">B20*2.1</f>
         <v>9.47780959198282</v>
@@ -734,8 +2765,11 @@
       <c r="H20" s="0" t="n">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="0" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <f aca="false">B21*2.1</f>
         <v>9.4176807444524</v>
@@ -764,8 +2798,11 @@
       <c r="H21" s="0" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="n">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <f aca="false">B22*2.1</f>
         <v>9.35755189692197</v>
@@ -794,8 +2831,11 @@
       <c r="H22" s="0" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <f aca="false">B23*2.1</f>
         <v>9.29742304939155</v>
@@ -824,8 +2864,11 @@
       <c r="H23" s="0" t="n">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="n">
+        <v>9.21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <f aca="false">B24*2.1</f>
         <v>9.23729420186113</v>
@@ -854,8 +2897,11 @@
       <c r="H24" s="0" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="0" t="n">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <f aca="false">B25*2.1</f>
         <v>9.17716535433071</v>
@@ -884,8 +2930,11 @@
       <c r="H25" s="0" t="n">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="0" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <f aca="false">B26*2.1</f>
         <v>9.11703650680028</v>
@@ -914,8 +2963,11 @@
       <c r="H26" s="0" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="n">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <f aca="false">B27*2.1</f>
         <v>9.05690765926986</v>
@@ -944,8 +2996,11 @@
       <c r="H27" s="0" t="n">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="0" t="n">
+        <v>8.95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <f aca="false">B28*2.1</f>
         <v>8.99677881173944</v>
@@ -974,8 +3029,11 @@
       <c r="H28" s="0" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="0" t="n">
+        <v>8.88</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <f aca="false">B29*2.1</f>
         <v>8.93664996420902</v>
@@ -1004,8 +3062,11 @@
       <c r="H29" s="0" t="n">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="0" t="n">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <f aca="false">B30*2.1</f>
         <v>8.8765211166786</v>
@@ -1034,8 +3095,11 @@
       <c r="H30" s="0" t="n">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="0" t="n">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <f aca="false">B31*2.1</f>
         <v>8.81639226914817</v>
@@ -1064,8 +3128,11 @@
       <c r="H31" s="0" t="n">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="0" t="n">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <f aca="false">B32*2.1</f>
         <v>8.75626342161775</v>
@@ -1094,8 +3161,11 @@
       <c r="H32" s="0" t="n">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="0" t="n">
+        <v>8.62</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <f aca="false">B33*2.1</f>
         <v>8.69613457408733</v>
@@ -1124,8 +3194,11 @@
       <c r="H33" s="0" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="0" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <f aca="false">B34*2.1</f>
         <v>8.63600572655691</v>
@@ -1154,8 +3227,11 @@
       <c r="H34" s="0" t="n">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="0" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <f aca="false">B35*2.1</f>
         <v>8.57587687902648</v>
@@ -1184,8 +3260,11 @@
       <c r="H35" s="0" t="n">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="0" t="n">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <f aca="false">B36*2.1</f>
         <v>8.51574803149606</v>
@@ -1214,8 +3293,11 @@
       <c r="H36" s="0" t="n">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="0" t="n">
+        <v>8.38</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <f aca="false">B37*2.1</f>
         <v>8.45561918396564</v>
@@ -1244,8 +3326,11 @@
       <c r="H37" s="0" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="0" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <f aca="false">B38*2.1</f>
         <v>8.39549033643522</v>
@@ -1274,8 +3359,11 @@
       <c r="H38" s="0" t="n">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="0" t="n">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <f aca="false">B39*2.1</f>
         <v>8.33536148890479</v>
@@ -1304,8 +3392,11 @@
       <c r="H39" s="0" t="n">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="0" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <f aca="false">B40*2.1</f>
         <v>8.27523264137437</v>
@@ -1334,8 +3425,11 @@
       <c r="H40" s="0" t="n">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="0" t="n">
+        <v>8.13</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <f aca="false">B41*2.1</f>
         <v>8.21510379384395</v>
@@ -1364,8 +3458,11 @@
       <c r="H41" s="0" t="n">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="0" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <f aca="false">B42*2.1</f>
         <v>8.15497494631353</v>
@@ -1394,8 +3491,11 @@
       <c r="H42" s="0" t="n">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <f aca="false">B43*2.1</f>
         <v>8.09484609878311</v>
@@ -1424,8 +3524,11 @@
       <c r="H43" s="0" t="n">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="0" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <f aca="false">B44*2.1</f>
         <v>8.03471725125268</v>
@@ -1454,8 +3557,11 @@
       <c r="H44" s="0" t="n">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="0" t="n">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <f aca="false">B45*2.1</f>
         <v>7.97458840372226</v>
@@ -1484,8 +3590,11 @@
       <c r="H45" s="0" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I45" s="0" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <f aca="false">B46*2.1</f>
         <v>7.91445955619184</v>
@@ -1514,8 +3623,11 @@
       <c r="H46" s="0" t="n">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I46" s="0" t="n">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <f aca="false">B47*2.1</f>
         <v>7.85433070866142</v>
@@ -1544,8 +3656,11 @@
       <c r="H47" s="0" t="n">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I47" s="0" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <f aca="false">B48*2.1</f>
         <v>7.79420186113099</v>
@@ -1574,8 +3689,11 @@
       <c r="H48" s="0" t="n">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I48" s="0" t="n">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <f aca="false">B49*2.1</f>
         <v>7.73407301360057</v>
@@ -1604,8 +3722,11 @@
       <c r="H49" s="0" t="n">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="0" t="n">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <f aca="false">B50*2.1</f>
         <v>7.67394416607015</v>
@@ -1634,8 +3755,11 @@
       <c r="H50" s="0" t="n">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I50" s="0" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <f aca="false">B51*2.1</f>
         <v>7.61381531853973</v>
@@ -1664,8 +3788,11 @@
       <c r="H51" s="0" t="n">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="0" t="n">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <f aca="false">B52*2.1</f>
         <v>7.5536864710093</v>
@@ -1694,8 +3821,11 @@
       <c r="H52" s="0" t="n">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="0" t="n">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <f aca="false">B53*2.1</f>
         <v>7.49355762347888</v>
@@ -1724,8 +3854,11 @@
       <c r="H53" s="0" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I53" s="0" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <f aca="false">B54*2.1</f>
         <v>7.43342877594846</v>
@@ -1754,8 +3887,11 @@
       <c r="H54" s="0" t="n">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I54" s="0" t="n">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <f aca="false">B55*2.1</f>
         <v>7.37329992841804</v>
@@ -1784,8 +3920,11 @@
       <c r="H55" s="0" t="n">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="0" t="n">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <f aca="false">B56*2.1</f>
         <v>7.31317108088761</v>
@@ -1814,8 +3953,11 @@
       <c r="H56" s="0" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I56" s="0" t="n">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <f aca="false">B57*2.1</f>
         <v>7.25304223335719</v>
@@ -1844,8 +3986,11 @@
       <c r="H57" s="0" t="n">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I57" s="0" t="n">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <f aca="false">B58*2.1</f>
         <v>7.19291338582677</v>
@@ -1874,8 +4019,11 @@
       <c r="H58" s="0" t="n">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I58" s="0" t="n">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <f aca="false">B59*2.1</f>
         <v>7.13278453829635</v>
@@ -1904,8 +4052,11 @@
       <c r="H59" s="0" t="n">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I59" s="0" t="n">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <f aca="false">B60*2.1</f>
         <v>7.07265569076593</v>
@@ -1934,8 +4085,11 @@
       <c r="H60" s="0" t="n">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I60" s="0" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <f aca="false">B61*2.1</f>
         <v>7.0125268432355</v>
@@ -1964,8 +4118,11 @@
       <c r="H61" s="0" t="n">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I61" s="0" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <f aca="false">B62*2.1</f>
         <v>6.95239799570508</v>
@@ -1994,8 +4151,11 @@
       <c r="H62" s="0" t="n">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="0" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <f aca="false">B63*2.1</f>
         <v>6.89226914817466</v>
@@ -2024,8 +4184,11 @@
       <c r="H63" s="0" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I63" s="0" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <f aca="false">B64*2.1</f>
         <v>6.83214030064424</v>
@@ -2054,8 +4217,11 @@
       <c r="H64" s="0" t="n">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="0" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <f aca="false">B65*2.1</f>
         <v>6.77201145311381</v>
@@ -2084,8 +4250,11 @@
       <c r="H65" s="0" t="n">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="0" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <f aca="false">B66*2.1</f>
         <v>6.71188260558339</v>
@@ -2114,8 +4283,11 @@
       <c r="H66" s="0" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I66" s="0" t="n">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <f aca="false">B67*2.1</f>
         <v>6.65175375805297</v>
@@ -2144,8 +4316,11 @@
       <c r="H67" s="0" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="0" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <f aca="false">B68*2.1</f>
         <v>6.59162491052255</v>
@@ -2174,8 +4349,11 @@
       <c r="H68" s="0" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I68" s="0" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <f aca="false">B69*2.1</f>
         <v>6.53149606299213</v>
@@ -2204,8 +4382,11 @@
       <c r="H69" s="0" t="n">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="0" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <f aca="false">B70*2.1</f>
         <v>6.4713672154617</v>
@@ -2234,8 +4415,11 @@
       <c r="H70" s="0" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="0" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <f aca="false">B71*2.1</f>
         <v>6.41123836793128</v>
@@ -2264,8 +4448,11 @@
       <c r="H71" s="0" t="n">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I71" s="0" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <f aca="false">B72*2.1</f>
         <v>6.35110952040086</v>
@@ -2294,8 +4481,11 @@
       <c r="H72" s="0" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I72" s="0" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <f aca="false">B73*2.1</f>
         <v>6.29098067287044</v>
@@ -2324,8 +4514,11 @@
       <c r="H73" s="0" t="n">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="0" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <f aca="false">B74*2.1</f>
         <v>6.23085182534001</v>
@@ -2354,8 +4547,11 @@
       <c r="H74" s="0" t="n">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I74" s="0" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <f aca="false">B75*2.1</f>
         <v>6.17072297780959</v>
@@ -2384,8 +4580,11 @@
       <c r="H75" s="0" t="n">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I75" s="0" t="n">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <f aca="false">B76*2.1</f>
         <v>6.11059413027917</v>
@@ -2414,8 +4613,11 @@
       <c r="H76" s="0" t="n">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I76" s="0" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <f aca="false">B77*2.1</f>
         <v>6.05046528274875</v>
@@ -2444,8 +4646,11 @@
       <c r="H77" s="0" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I77" s="0" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <f aca="false">B78*2.1</f>
         <v>5.99033643521832</v>
@@ -2474,8 +4679,11 @@
       <c r="H78" s="0" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="0" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <f aca="false">B79*2.1</f>
         <v>5.9302075876879</v>
@@ -2504,8 +4712,11 @@
       <c r="H79" s="0" t="n">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I79" s="0" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <f aca="false">B80*2.1</f>
         <v>5.87007874015748</v>
@@ -2534,8 +4745,11 @@
       <c r="H80" s="0" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I80" s="0" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <f aca="false">B81*2.1</f>
         <v>5.80994989262706</v>
@@ -2564,8 +4778,11 @@
       <c r="H81" s="0" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I81" s="0" t="n">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <f aca="false">B82*2.1</f>
         <v>5.74982104509664</v>
@@ -2594,8 +4811,11 @@
       <c r="H82" s="0" t="n">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I82" s="0" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <f aca="false">B83*2.1</f>
         <v>5.68969219756621</v>
@@ -2624,8 +4844,11 @@
       <c r="H83" s="0" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="0" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <f aca="false">B84*2.1</f>
         <v>5.62956335003579</v>
@@ -2654,8 +4877,11 @@
       <c r="H84" s="0" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="0" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <f aca="false">B85*2.1</f>
         <v>5.56943450250537</v>
@@ -2684,8 +4910,11 @@
       <c r="H85" s="0" t="n">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I85" s="0" t="n">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <f aca="false">B86*2.1</f>
         <v>5.50930565497495</v>
@@ -2714,8 +4943,11 @@
       <c r="H86" s="0" t="n">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I86" s="0" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <f aca="false">B87*2.1</f>
         <v>5.44917680744452</v>
@@ -2744,8 +4976,11 @@
       <c r="H87" s="0" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I87" s="0" t="n">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <f aca="false">B88*2.1</f>
         <v>5.3890479599141</v>
@@ -2774,8 +5009,11 @@
       <c r="H88" s="0" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I88" s="0" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <f aca="false">B89*2.1</f>
         <v>5.32891911238368</v>
@@ -2804,8 +5042,11 @@
       <c r="H89" s="0" t="n">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I89" s="0" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <f aca="false">B90*2.1</f>
         <v>5.26879026485326</v>
@@ -2834,8 +5075,11 @@
       <c r="H90" s="0" t="n">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I90" s="0" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <f aca="false">B91*2.1</f>
         <v>5.20866141732283</v>
@@ -2864,8 +5108,11 @@
       <c r="H91" s="0" t="n">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I91" s="0" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <f aca="false">B92*2.1</f>
         <v>5.14853256979241</v>
@@ -2894,8 +5141,11 @@
       <c r="H92" s="0" t="n">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I92" s="0" t="n">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <f aca="false">B93*2.1</f>
         <v>5.08840372226199</v>
@@ -2924,8 +5174,11 @@
       <c r="H93" s="0" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I93" s="0" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <f aca="false">B94*2.1</f>
         <v>5.02827487473157</v>
@@ -2954,8 +5207,11 @@
       <c r="H94" s="0" t="n">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I94" s="0" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <f aca="false">B95*2.1</f>
         <v>4.96814602720115</v>
@@ -2984,8 +5240,11 @@
       <c r="H95" s="0" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I95" s="0" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <f aca="false">B96*2.1</f>
         <v>4.90801717967072</v>
@@ -3014,8 +5273,11 @@
       <c r="H96" s="0" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I96" s="0" t="n">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <f aca="false">B97*2.1</f>
         <v>4.8478883321403</v>
@@ -3044,8 +5306,11 @@
       <c r="H97" s="0" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="0" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <f aca="false">B98*2.1</f>
         <v>4.78775948460988</v>
@@ -3074,8 +5339,11 @@
       <c r="H98" s="0" t="n">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="0" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <f aca="false">B99*2.1</f>
         <v>4.72763063707946</v>
@@ -3104,8 +5372,11 @@
       <c r="H99" s="0" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="0" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <f aca="false">B100*2.1</f>
         <v>4.66750178954903</v>
@@ -3134,8 +5405,11 @@
       <c r="H100" s="0" t="n">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="0" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <f aca="false">B101*2.1</f>
         <v>4.60737294201861</v>
@@ -3164,8 +5438,11 @@
       <c r="H101" s="0" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I101" s="0" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <f aca="false">B102*2.1</f>
         <v>4.54724409448819</v>
@@ -3194,8 +5471,11 @@
       <c r="H102" s="0" t="n">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I102" s="0" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <f aca="false">B103*2.1</f>
         <v>4.48711524695777</v>
@@ -3224,8 +5504,11 @@
       <c r="H103" s="0" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I103" s="0" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <f aca="false">B104*2.1</f>
         <v>4.42698639942734</v>
@@ -3254,8 +5537,11 @@
       <c r="H104" s="0" t="n">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I104" s="0" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <f aca="false">B105*2.1</f>
         <v>4.36685755189692</v>
@@ -3284,8 +5570,11 @@
       <c r="H105" s="0" t="n">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I105" s="0" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <f aca="false">B106*2.1</f>
         <v>4.3067287043665</v>
@@ -3314,8 +5603,11 @@
       <c r="H106" s="0" t="n">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I106" s="0" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <f aca="false">B107*2.1</f>
         <v>4.24659985683608</v>
@@ -3344,8 +5636,11 @@
       <c r="H107" s="0" t="n">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I107" s="0" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <f aca="false">B108*2.1</f>
         <v>4.18647100930566</v>
@@ -3374,8 +5669,11 @@
       <c r="H108" s="0" t="n">
         <v>105</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I108" s="0" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <f aca="false">B109*2.1</f>
         <v>4.12634216177523</v>
@@ -3404,8 +5702,11 @@
       <c r="H109" s="0" t="n">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I109" s="0" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <f aca="false">B110*2.1</f>
         <v>4.06621331424481</v>
@@ -3434,8 +5735,11 @@
       <c r="H110" s="0" t="n">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I110" s="0" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <f aca="false">B111*2.1</f>
         <v>4.00608446671439</v>
@@ -3464,8 +5768,11 @@
       <c r="H111" s="0" t="n">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I111" s="0" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <f aca="false">B112*2.1</f>
         <v>3.94595561918397</v>
@@ -3494,8 +5801,11 @@
       <c r="H112" s="0" t="n">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I112" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <f aca="false">B113*2.1</f>
         <v>3.88582677165354</v>
@@ -3524,8 +5834,11 @@
       <c r="H113" s="0" t="n">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I113" s="0" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <f aca="false">B114*2.1</f>
         <v>3.82569792412312</v>
@@ -3554,8 +5867,11 @@
       <c r="H114" s="0" t="n">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I114" s="0" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <f aca="false">B115*2.1</f>
         <v>3.7655690765927</v>
@@ -3584,8 +5900,11 @@
       <c r="H115" s="0" t="n">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I115" s="0" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <f aca="false">B116*2.1</f>
         <v>3.70544022906228</v>
@@ -3614,8 +5933,11 @@
       <c r="H116" s="0" t="n">
         <v>113</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I116" s="0" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <f aca="false">B117*2.1</f>
         <v>3.64531138153185</v>
@@ -3644,8 +5966,11 @@
       <c r="H117" s="0" t="n">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I117" s="0" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <f aca="false">B118*2.1</f>
         <v>3.58518253400143</v>
@@ -3674,8 +5999,11 @@
       <c r="H118" s="0" t="n">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I118" s="0" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <f aca="false">B119*2.1</f>
         <v>3.52505368647101</v>
@@ -3704,8 +6032,11 @@
       <c r="H119" s="0" t="n">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I119" s="0" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <f aca="false">B120*2.1</f>
         <v>3.46492483894059</v>
@@ -3734,8 +6065,11 @@
       <c r="H120" s="0" t="n">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I120" s="0" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <f aca="false">B121*2.1</f>
         <v>3.40479599141016</v>
@@ -3764,8 +6098,11 @@
       <c r="H121" s="0" t="n">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I121" s="0" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <f aca="false">B122*2.1</f>
         <v>3.34466714387974</v>
@@ -3794,8 +6131,11 @@
       <c r="H122" s="0" t="n">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I122" s="0" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <f aca="false">B123*2.1</f>
         <v>3.28453829634932</v>
@@ -3824,8 +6164,11 @@
       <c r="H123" s="0" t="n">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I123" s="0" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <f aca="false">B124*2.1</f>
         <v>3.2244094488189</v>
@@ -3854,8 +6197,11 @@
       <c r="H124" s="0" t="n">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I124" s="0" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <f aca="false">B125*2.1</f>
         <v>3.16428060128848</v>
@@ -3884,8 +6230,11 @@
       <c r="H125" s="0" t="n">
         <v>122</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I125" s="0" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <f aca="false">B126*2.1</f>
         <v>3.10415175375805</v>
@@ -3914,8 +6263,11 @@
       <c r="H126" s="0" t="n">
         <v>123</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I126" s="0" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <f aca="false">B127*2.1</f>
         <v>3.04402290622763</v>
@@ -3944,8 +6296,11 @@
       <c r="H127" s="0" t="n">
         <v>124</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I127" s="0" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <f aca="false">B128*2.1</f>
         <v>2.98389405869721</v>
@@ -3974,8 +6329,11 @@
       <c r="H128" s="0" t="n">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I128" s="0" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <f aca="false">B129*2.1</f>
         <v>2.92376521116678</v>
@@ -4004,8 +6362,11 @@
       <c r="H129" s="0" t="n">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I129" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <f aca="false">B130*2.1</f>
         <v>2.86363636363636</v>
@@ -4034,10 +6395,14 @@
       <c r="H130" s="0" t="n">
         <v>127</v>
       </c>
+      <c r="I130" s="0" t="n">
+        <v>2.33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/misc/voltperval..xlsx
+++ b/misc/voltperval..xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="bunch o charts" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="bunch o data" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,12 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Theoretical Voltage/value</t>
   </si>
   <si>
     <t xml:space="preserve">Actual Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed Reading, 1 magnet, original cylinder (wobbly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed reading, 4 magnets, new cylinder</t>
   </si>
   <si>
     <t xml:space="preserve">Voutput</t>
@@ -52,6 +58,9 @@
   <si>
     <t xml:space="preserve">Pot Value</t>
   </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
 </sst>
 </file>
 
@@ -60,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +101,29 @@
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -146,8 +178,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -208,8 +240,8 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF595959"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -222,7 +254,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -298,7 +330,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$130</c:f>
+              <c:f>'bunch o data'!$H$3:$H$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -691,7 +723,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$130</c:f>
+              <c:f>'bunch o data'!$A$3:$A$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -1112,7 +1144,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$130</c:f>
+              <c:f>'bunch o data'!$H$3:$H$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -1505,7 +1537,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$130</c:f>
+              <c:f>'bunch o data'!$I$3:$I$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="128"/>
@@ -1898,11 +1930,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91591814"/>
-        <c:axId val="36354108"/>
+        <c:axId val="10823591"/>
+        <c:axId val="51573376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91591814"/>
+        <c:axId val="10823591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,12 +1980,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36354108"/>
+        <c:crossAx val="51573376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36354108"/>
+        <c:axId val="51573376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2031,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91591814"/>
+        <c:crossAx val="10823591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2037,6 +2069,1080 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Voltage vs Average Rotational Speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'bunch o data'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speed Reading, 1 magnet, original cylinder (wobbly)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'bunch o data'!$I$3:$I$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.83</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.38</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.02</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.11</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.77</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.35</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.23</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.53</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.47</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'bunch o data'!$X$3:$X$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>39930</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35580</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27330</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34680</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34530</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35880</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25740</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26910</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22890</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25590</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22440</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21480</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24660</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21120</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28170</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24180</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34290</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29070</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23190</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30210</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34290</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36540</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36690</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31440</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35010</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37290</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29490</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35310</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25800</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23160</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17580</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16050</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11640</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12390</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15990</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13440</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13680</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8940</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10530</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16740</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18450</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13710</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10770</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14130</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12450</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16110</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19170</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17940</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28320</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19050</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15240</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16140</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15420</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14430</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18360</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15720</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16770</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14850</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7650</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7230</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4860</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6360</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8340</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7620</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6570</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8820</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4380</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8460</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>10560</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7470</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6930</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8190</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5010</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4290</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5610</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4740</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5610</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3030</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4290</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3540</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1860</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="52570600"/>
+        <c:axId val="67561284"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52570600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67561284"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="67561284"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Rotational Speed (RPM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52570600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2048,9 +3154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>470880</xdr:colOff>
+      <xdr:colOff>470160</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2059,11 +3165,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="6528600" cy="4208040"/>
+        <a:ext cx="8128080" cy="4207320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>318600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68760</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>45000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="318600" y="1891800"/>
+        <a:ext cx="21873240" cy="9207000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2079,14 +3215,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O69" activeCellId="0" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.54081632653061"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2104,15 +3237,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:AI130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="16.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,38 +3259,64 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1</v>
@@ -2174,8 +3333,74 @@
       <c r="M2" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">B3*2.1</f>
         <v>10.5</v>
@@ -2207,8 +3432,46 @@
       <c r="I3" s="0" t="n">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="0" t="n">
+        <v>48000</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>36900</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>42900</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>36300</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>36600</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>36900</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>38100</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>37500</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>44700</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>41400</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <f aca="false">SUM(N3:W3)/10</f>
+        <v>39930</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <f aca="false">SUM(Y3:AH3)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">B4*2.1</f>
         <v>10.4398711524696</v>
@@ -2240,8 +3503,46 @@
       <c r="I4" s="0" t="n">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N4" s="0" t="n">
+        <v>43200</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>41700</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>37800</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>44700</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>41400</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>39000</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>40500</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>39600</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>40200</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <f aca="false">SUM(N4:W4)/10</f>
+        <v>40650</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <f aca="false">SUM(Y4:AH4)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">B5*2.1</f>
         <v>10.3797423049392</v>
@@ -2273,8 +3574,46 @@
       <c r="I5" s="0" t="n">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N5" s="0" t="n">
+        <v>33600</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>26700</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>32400</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>34200</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>34800</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>42000</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>44400</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>41400</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>39600</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <f aca="false">SUM(N5:W5)/10</f>
+        <v>36030</v>
+      </c>
+      <c r="AI5" s="0" t="n">
+        <f aca="false">SUM(Y5:AH5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">B6*2.1</f>
         <v>10.3196134574087</v>
@@ -2306,8 +3645,46 @@
       <c r="I6" s="0" t="n">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>39900</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>39300</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>26400</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>30600</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>34800</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>43800</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>36300</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>32400</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>33900</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <f aca="false">SUM(N6:W6)/10</f>
+        <v>35580</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <f aca="false">SUM(Y6:AH6)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">B7*2.1</f>
         <v>10.2594846098783</v>
@@ -2339,8 +3716,46 @@
       <c r="I7" s="0" t="n">
         <v>10.24</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="0" t="n">
+        <v>42600</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>40800</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>43200</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>44700</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>43800</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>52500</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>35400</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>42900</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <f aca="false">SUM(N7:W7)/10</f>
+        <v>41880</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <f aca="false">SUM(Y7:AH7)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <f aca="false">B8*2.1</f>
         <v>10.1993557623479</v>
@@ -2372,8 +3787,46 @@
       <c r="I8" s="0" t="n">
         <v>10.18</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N8" s="0" t="n">
+        <v>34800</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>33000</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>42600</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>35700</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>33900</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>33000</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>39900</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>27600</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>31800</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>29100</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <f aca="false">SUM(N8:W8)/10</f>
+        <v>34140</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <f aca="false">SUM(Y8:AH8)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">B9*2.1</f>
         <v>10.1392269148175</v>
@@ -2405,8 +3858,46 @@
       <c r="I9" s="0" t="n">
         <v>10.11</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N9" s="0" t="n">
+        <v>28200</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>32700</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>30300</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>38700</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>39600</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>25200</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>30600</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <f aca="false">SUM(N9:W9)/10</f>
+        <v>31800</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <f aca="false">SUM(Y9:AH9)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <f aca="false">B10*2.1</f>
         <v>10.079098067287</v>
@@ -2438,8 +3929,46 @@
       <c r="I10" s="0" t="n">
         <v>10.05</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N10" s="0" t="n">
+        <v>36900</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>32700</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>31800</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>35100</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>46200</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>44100</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>46500</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <f aca="false">SUM(N10:W10)/10</f>
+        <v>37230</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <f aca="false">SUM(Y10:AH10)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <f aca="false">B11*2.1</f>
         <v>10.0189692197566</v>
@@ -2471,8 +4000,46 @@
       <c r="I11" s="0" t="n">
         <v>9.98</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="0" t="n">
+        <v>43200</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>41100</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>36600</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>37200</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>35100</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>33300</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>34800</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>36900</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <f aca="false">SUM(N11:W11)/10</f>
+        <v>36390</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <f aca="false">SUM(Y11:AH11)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <f aca="false">B12*2.1</f>
         <v>9.9588403722262</v>
@@ -2504,8 +4071,46 @@
       <c r="I12" s="0" t="n">
         <v>9.91</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N12" s="0" t="n">
+        <v>34800</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>25500</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>25800</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>30300</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>28200</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>21900</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>26700</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <f aca="false">SUM(N12:W12)/10</f>
+        <v>27330</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <f aca="false">SUM(Y12:AH12)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <f aca="false">B13*2.1</f>
         <v>9.89871152469578</v>
@@ -2537,8 +4142,46 @@
       <c r="I13" s="0" t="n">
         <v>9.86</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="0" t="n">
+        <v>22800</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>36600</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>38100</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>37800</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>36000</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>38700</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>42000</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>39600</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>28200</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>27000</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <f aca="false">SUM(N13:W13)/10</f>
+        <v>34680</v>
+      </c>
+      <c r="AI13" s="0" t="n">
+        <f aca="false">SUM(Y13:AH13)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <f aca="false">B14*2.1</f>
         <v>9.83858267716535</v>
@@ -2570,8 +4213,46 @@
       <c r="I14" s="0" t="n">
         <v>9.79</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N14" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>28800</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>27300</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>39300</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>31800</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>32100</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>33300</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>35700</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>42000</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <f aca="false">SUM(N14:W14)/10</f>
+        <v>33150</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <f aca="false">SUM(Y14:AH14)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <f aca="false">B15*2.1</f>
         <v>9.77845382963493</v>
@@ -2603,8 +4284,46 @@
       <c r="I15" s="0" t="n">
         <v>9.73</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N15" s="0" t="n">
+        <v>42300</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>37200</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>43500</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>47100</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>40500</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>46800</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>45000</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>30300</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>27600</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>36000</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <f aca="false">SUM(N15:W15)/10</f>
+        <v>39630</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <f aca="false">SUM(Y15:AH15)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <f aca="false">B16*2.1</f>
         <v>9.71832498210451</v>
@@ -2636,8 +4355,46 @@
       <c r="I16" s="0" t="n">
         <v>9.66</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16" s="0" t="n">
+        <v>31800</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>30600</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>27600</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>36600</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>38100</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>41400</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>35700</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>35700</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>36600</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <f aca="false">SUM(N16:W16)/10</f>
+        <v>34530</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <f aca="false">SUM(Y16:AH16)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <f aca="false">B17*2.1</f>
         <v>9.65819613457409</v>
@@ -2669,8 +4426,46 @@
       <c r="I17" s="0" t="n">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N17" s="0" t="n">
+        <v>39000</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>30600</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>34800</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>37800</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>32700</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>39000</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>33900</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>38100</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <f aca="false">SUM(N17:W17)/10</f>
+        <v>35880</v>
+      </c>
+      <c r="AI17" s="0" t="n">
+        <f aca="false">SUM(Y17:AH17)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <f aca="false">B18*2.1</f>
         <v>9.59806728704367</v>
@@ -2702,8 +4497,46 @@
       <c r="I18" s="0" t="n">
         <v>9.53</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N18" s="0" t="n">
+        <v>32400</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>24300</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>28500</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>33900</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <f aca="false">SUM(N18:W18)/10</f>
+        <v>25740</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <f aca="false">SUM(Y18:AH18)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <f aca="false">B19*2.1</f>
         <v>9.53793843951324</v>
@@ -2735,8 +4568,46 @@
       <c r="I19" s="0" t="n">
         <v>9.46</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N19" s="0" t="n">
+        <v>39600</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>36000</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>39300</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>37200</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>37800</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>32100</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>31800</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>35700</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <f aca="false">SUM(N19:W19)/10</f>
+        <v>35220</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <f aca="false">SUM(Y19:AH19)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <f aca="false">B20*2.1</f>
         <v>9.47780959198282</v>
@@ -2768,8 +4639,46 @@
       <c r="I20" s="0" t="n">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N20" s="0" t="n">
+        <v>27300</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>25200</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>32700</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>32100</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>22800</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>36900</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>33300</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>39600</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <f aca="false">SUM(N20:W20)/10</f>
+        <v>30120</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <f aca="false">SUM(Y20:AH20)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <f aca="false">B21*2.1</f>
         <v>9.4176807444524</v>
@@ -2801,8 +4710,46 @@
       <c r="I21" s="0" t="n">
         <v>9.34</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N21" s="0" t="n">
+        <v>38700</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>30600</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>28200</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>25200</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>26400</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>22200</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <f aca="false">SUM(N21:W21)/10</f>
+        <v>26910</v>
+      </c>
+      <c r="AI21" s="0" t="n">
+        <f aca="false">SUM(Y21:AH21)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <f aca="false">B22*2.1</f>
         <v>9.35755189692197</v>
@@ -2834,8 +4781,46 @@
       <c r="I22" s="0" t="n">
         <v>9.27</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N22" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>25500</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>16200</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>19500</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>29400</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>29100</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>22200</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <f aca="false">SUM(N22:W22)/10</f>
+        <v>22890</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <f aca="false">SUM(Y22:AH22)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <f aca="false">B23*2.1</f>
         <v>9.29742304939155</v>
@@ -2867,8 +4852,46 @@
       <c r="I23" s="0" t="n">
         <v>9.21</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N23" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>28800</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>17100</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <f aca="false">SUM(N23:W23)/10</f>
+        <v>17250</v>
+      </c>
+      <c r="AI23" s="0" t="n">
+        <f aca="false">SUM(Y23:AH23)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <f aca="false">B24*2.1</f>
         <v>9.23729420186113</v>
@@ -2900,8 +4923,46 @@
       <c r="I24" s="0" t="n">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N24" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>25800</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>22500</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>24600</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>26100</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <f aca="false">SUM(N24:W24)/10</f>
+        <v>25590</v>
+      </c>
+      <c r="AI24" s="0" t="n">
+        <f aca="false">SUM(Y24:AH24)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <f aca="false">B25*2.1</f>
         <v>9.17716535433071</v>
@@ -2933,8 +4994,46 @@
       <c r="I25" s="0" t="n">
         <v>9.08</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N25" s="0" t="n">
+        <v>34200</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>25500</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>29100</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>26400</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>19500</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>24900</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>27900</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>33600</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <f aca="false">SUM(N25:W25)/10</f>
+        <v>27150</v>
+      </c>
+      <c r="AI25" s="0" t="n">
+        <f aca="false">SUM(Y25:AH25)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <f aca="false">B26*2.1</f>
         <v>9.11703650680028</v>
@@ -2966,8 +5065,46 @@
       <c r="I26" s="0" t="n">
         <v>9.02</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N26" s="0" t="n">
+        <v>19500</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>22200</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>18900</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>23400</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>18300</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>21300</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>30300</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <f aca="false">SUM(N26:W26)/10</f>
+        <v>22440</v>
+      </c>
+      <c r="AI26" s="0" t="n">
+        <f aca="false">SUM(Y26:AH26)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <f aca="false">B27*2.1</f>
         <v>9.05690765926986</v>
@@ -2999,8 +5136,46 @@
       <c r="I27" s="0" t="n">
         <v>8.95</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N27" s="0" t="n">
+        <v>22500</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>24600</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>21900</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>21900</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>21000</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>26400</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>24900</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <f aca="false">SUM(N27:W27)/10</f>
+        <v>21480</v>
+      </c>
+      <c r="AI27" s="0" t="n">
+        <f aca="false">SUM(Y27:AH27)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <f aca="false">B28*2.1</f>
         <v>8.99677881173944</v>
@@ -3032,8 +5207,46 @@
       <c r="I28" s="0" t="n">
         <v>8.88</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N28" s="0" t="n">
+        <v>27600</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>33600</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>32100</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>30300</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>29400</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>28800</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>11100</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <f aca="false">SUM(N28:W28)/10</f>
+        <v>24660</v>
+      </c>
+      <c r="AI28" s="0" t="n">
+        <f aca="false">SUM(Y28:AH28)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <f aca="false">B29*2.1</f>
         <v>8.93664996420902</v>
@@ -3065,8 +5278,46 @@
       <c r="I29" s="0" t="n">
         <v>8.82</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N29" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>27900</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>24900</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>18900</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <f aca="false">SUM(N29:W29)/10</f>
+        <v>21120</v>
+      </c>
+      <c r="AI29" s="0" t="n">
+        <f aca="false">SUM(Y29:AH29)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <f aca="false">B30*2.1</f>
         <v>8.8765211166786</v>
@@ -3098,8 +5349,46 @@
       <c r="I30" s="0" t="n">
         <v>8.76</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N30" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>12300</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>16800</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>22800</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <f aca="false">SUM(N30:W30)/10</f>
+        <v>18300</v>
+      </c>
+      <c r="AI30" s="0" t="n">
+        <f aca="false">SUM(Y30:AH30)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <f aca="false">B31*2.1</f>
         <v>8.81639226914817</v>
@@ -3131,8 +5420,46 @@
       <c r="I31" s="0" t="n">
         <v>8.7</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N31" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>22800</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>21300</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>27000</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>29700</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>41400</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>40200</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>26400</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <f aca="false">SUM(N31:W31)/10</f>
+        <v>28170</v>
+      </c>
+      <c r="AI31" s="0" t="n">
+        <f aca="false">SUM(Y31:AH31)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <f aca="false">B32*2.1</f>
         <v>8.75626342161775</v>
@@ -3164,8 +5491,46 @@
       <c r="I32" s="0" t="n">
         <v>8.62</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N32" s="0" t="n">
+        <v>21300</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>18900</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>25200</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>37500</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>26400</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>23400</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>26700</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>20100</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <f aca="false">SUM(N32:W32)/10</f>
+        <v>24180</v>
+      </c>
+      <c r="AI32" s="0" t="n">
+        <f aca="false">SUM(Y32:AH32)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <f aca="false">B33*2.1</f>
         <v>8.69613457408733</v>
@@ -3197,8 +5562,46 @@
       <c r="I33" s="0" t="n">
         <v>8.57</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N33" s="0" t="n">
+        <v>28800</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>33000</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>39000</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>36900</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>34800</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>36300</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>45600</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>27600</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>29400</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <f aca="false">SUM(N33:W33)/10</f>
+        <v>34290</v>
+      </c>
+      <c r="AI33" s="0" t="n">
+        <f aca="false">SUM(Y33:AH33)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <f aca="false">B34*2.1</f>
         <v>8.63600572655691</v>
@@ -3230,8 +5633,46 @@
       <c r="I34" s="0" t="n">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N34" s="0" t="n">
+        <v>32400</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>27900</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>24300</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>29700</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>26700</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>24600</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <f aca="false">SUM(N34:W34)/10</f>
+        <v>29070</v>
+      </c>
+      <c r="AI34" s="0" t="n">
+        <f aca="false">SUM(Y34:AH34)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <f aca="false">B35*2.1</f>
         <v>8.57587687902648</v>
@@ -3263,8 +5704,46 @@
       <c r="I35" s="0" t="n">
         <v>8.44</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N35" s="0" t="n">
+        <v>25800</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>22500</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>25200</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>22800</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>25800</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>30600</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>21000</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <f aca="false">SUM(N35:W35)/10</f>
+        <v>23190</v>
+      </c>
+      <c r="AI35" s="0" t="n">
+        <f aca="false">SUM(Y35:AH35)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <f aca="false">B36*2.1</f>
         <v>8.51574803149606</v>
@@ -3296,8 +5775,46 @@
       <c r="I36" s="0" t="n">
         <v>8.38</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N36" s="0" t="n">
+        <v>23400</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>26100</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>21900</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>27000</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>34800</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>37800</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>38100</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <f aca="false">SUM(N36:W36)/10</f>
+        <v>30210</v>
+      </c>
+      <c r="AI36" s="0" t="n">
+        <f aca="false">SUM(Y36:AH36)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <f aca="false">B37*2.1</f>
         <v>8.45561918396564</v>
@@ -3329,8 +5846,46 @@
       <c r="I37" s="0" t="n">
         <v>8.33</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N37" s="0" t="n">
+        <v>37200</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>35100</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>38100</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>33600</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>28200</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>30600</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>36600</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>37800</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>34200</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <f aca="false">SUM(N37:W37)/10</f>
+        <v>34290</v>
+      </c>
+      <c r="AI37" s="0" t="n">
+        <f aca="false">SUM(Y37:AH37)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <f aca="false">B38*2.1</f>
         <v>8.39549033643522</v>
@@ -3362,8 +5917,46 @@
       <c r="I38" s="0" t="n">
         <v>8.26</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N38" s="0" t="n">
+        <v>37200</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>36000</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>33000</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>36300</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>30900</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>39300</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>36900</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>37200</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>42300</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>36300</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <f aca="false">SUM(N38:W38)/10</f>
+        <v>36540</v>
+      </c>
+      <c r="AI38" s="0" t="n">
+        <f aca="false">SUM(Y38:AH38)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <f aca="false">B39*2.1</f>
         <v>8.33536148890479</v>
@@ -3395,8 +5988,46 @@
       <c r="I39" s="0" t="n">
         <v>8.19</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N39" s="0" t="n">
+        <v>37800</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>30900</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>35700</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>36600</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>33600</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>41100</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>34500</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>40800</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>44400</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <f aca="false">SUM(N39:W39)/10</f>
+        <v>36690</v>
+      </c>
+      <c r="AI39" s="0" t="n">
+        <f aca="false">SUM(Y39:AH39)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <f aca="false">B40*2.1</f>
         <v>8.27523264137437</v>
@@ -3428,8 +6059,46 @@
       <c r="I40" s="0" t="n">
         <v>8.13</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N40" s="0" t="n">
+        <v>32400</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>32700</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>39000</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>33600</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>28800</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>33900</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>29400</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>24900</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>27300</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>32400</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <f aca="false">SUM(N40:W40)/10</f>
+        <v>31440</v>
+      </c>
+      <c r="AI40" s="0" t="n">
+        <f aca="false">SUM(Y40:AH40)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <f aca="false">B41*2.1</f>
         <v>8.21510379384395</v>
@@ -3461,8 +6130,46 @@
       <c r="I41" s="0" t="n">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N41" s="0" t="n">
+        <v>37200</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>35700</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>35400</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>29100</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>30900</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>31800</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>34200</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>39000</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <f aca="false">SUM(N41:W41)/10</f>
+        <v>35010</v>
+      </c>
+      <c r="AI41" s="0" t="n">
+        <f aca="false">SUM(Y41:AH41)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <f aca="false">B42*2.1</f>
         <v>8.15497494631353</v>
@@ -3494,8 +6201,46 @@
       <c r="I42" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N42" s="0" t="n">
+        <v>39300</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>39000</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>38700</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>39000</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>36900</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>42300</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>36600</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>33300</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>36300</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <f aca="false">SUM(N42:W42)/10</f>
+        <v>37290</v>
+      </c>
+      <c r="AI42" s="0" t="n">
+        <f aca="false">SUM(Y42:AH42)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <f aca="false">B43*2.1</f>
         <v>8.09484609878311</v>
@@ -3527,8 +6272,46 @@
       <c r="I43" s="0" t="n">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N43" s="0" t="n">
+        <v>39300</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>37500</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>35400</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>29400</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>39000</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>28500</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>28800</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>26400</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>22800</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <f aca="false">SUM(N43:W43)/10</f>
+        <v>31020</v>
+      </c>
+      <c r="AI43" s="0" t="n">
+        <f aca="false">SUM(Y43:AH43)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <f aca="false">B44*2.1</f>
         <v>8.03471725125268</v>
@@ -3560,8 +6343,46 @@
       <c r="I44" s="0" t="n">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N44" s="0" t="n">
+        <v>33600</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>22200</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>26400</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>31200</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>26100</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>36600</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>28500</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>29700</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>32400</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>28200</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <f aca="false">SUM(N44:W44)/10</f>
+        <v>29490</v>
+      </c>
+      <c r="AI44" s="0" t="n">
+        <f aca="false">SUM(Y44:AH44)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <f aca="false">B45*2.1</f>
         <v>7.97458840372226</v>
@@ -3593,8 +6414,46 @@
       <c r="I45" s="0" t="n">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N45" s="0" t="n">
+        <v>26700</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>32700</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>40200</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>37800</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>36000</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>32700</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>35700</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>38700</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>38400</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <v>34200</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <f aca="false">SUM(N45:W45)/10</f>
+        <v>35310</v>
+      </c>
+      <c r="AI45" s="0" t="n">
+        <f aca="false">SUM(Y45:AH45)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <f aca="false">B46*2.1</f>
         <v>7.91445955619184</v>
@@ -3626,8 +6485,46 @@
       <c r="I46" s="0" t="n">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N46" s="0" t="n">
+        <v>38700</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>32100</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>29100</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>20100</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>27900</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>26400</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>25800</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <f aca="false">SUM(N46:W46)/10</f>
+        <v>25800</v>
+      </c>
+      <c r="AI46" s="0" t="n">
+        <f aca="false">SUM(Y46:AH46)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <f aca="false">B47*2.1</f>
         <v>7.85433070866142</v>
@@ -3659,8 +6556,46 @@
       <c r="I47" s="0" t="n">
         <v>7.68</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N47" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>27300</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>26100</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>21000</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>26700</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>20100</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <f aca="false">SUM(N47:W47)/10</f>
+        <v>23160</v>
+      </c>
+      <c r="AI47" s="0" t="n">
+        <f aca="false">SUM(Y47:AH47)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <f aca="false">B48*2.1</f>
         <v>7.79420186113099</v>
@@ -3692,8 +6627,46 @@
       <c r="I48" s="0" t="n">
         <v>7.62</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N48" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>25500</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>26700</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <v>16800</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <f aca="false">SUM(N48:W48)/10</f>
+        <v>17580</v>
+      </c>
+      <c r="AI48" s="0" t="n">
+        <f aca="false">SUM(Y48:AH48)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <f aca="false">B49*2.1</f>
         <v>7.73407301360057</v>
@@ -3725,8 +6698,46 @@
       <c r="I49" s="0" t="n">
         <v>7.55</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N49" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>16800</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <v>17100</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <f aca="false">SUM(N49:W49)/10</f>
+        <v>16050</v>
+      </c>
+      <c r="AI49" s="0" t="n">
+        <f aca="false">SUM(Y49:AH49)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <f aca="false">B50*2.1</f>
         <v>7.67394416607015</v>
@@ -3758,8 +6769,46 @@
       <c r="I50" s="0" t="n">
         <v>7.49</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N50" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="X50" s="0" t="n">
+        <f aca="false">SUM(N50:W50)/10</f>
+        <v>11640</v>
+      </c>
+      <c r="AI50" s="0" t="n">
+        <f aca="false">SUM(Y50:AH50)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <f aca="false">B51*2.1</f>
         <v>7.61381531853973</v>
@@ -3791,8 +6840,46 @@
       <c r="I51" s="0" t="n">
         <v>7.42</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N51" s="0" t="n">
+        <v>10200</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>12300</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>18300</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>23400</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <f aca="false">SUM(N51:W51)/10</f>
+        <v>12390</v>
+      </c>
+      <c r="AI51" s="0" t="n">
+        <f aca="false">SUM(Y51:AH51)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <f aca="false">B52*2.1</f>
         <v>7.5536864710093</v>
@@ -3824,8 +6911,46 @@
       <c r="I52" s="0" t="n">
         <v>7.36</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N52" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>16200</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <v>11100</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <f aca="false">SUM(N52:W52)/10</f>
+        <v>9720</v>
+      </c>
+      <c r="AI52" s="0" t="n">
+        <f aca="false">SUM(Y52:AH52)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <f aca="false">B53*2.1</f>
         <v>7.49355762347888</v>
@@ -3857,8 +6982,46 @@
       <c r="I53" s="0" t="n">
         <v>7.28</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N53" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>12300</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="W53" s="0" t="n">
+        <v>12300</v>
+      </c>
+      <c r="X53" s="0" t="n">
+        <f aca="false">SUM(N53:W53)/10</f>
+        <v>15990</v>
+      </c>
+      <c r="AI53" s="0" t="n">
+        <f aca="false">SUM(Y53:AH53)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <f aca="false">B54*2.1</f>
         <v>7.43342877594846</v>
@@ -3890,8 +7053,46 @@
       <c r="I54" s="0" t="n">
         <v>7.22</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N54" s="0" t="n">
+        <v>12600</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>23400</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <v>12600</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="X54" s="0" t="n">
+        <f aca="false">SUM(N54:W54)/10</f>
+        <v>13440</v>
+      </c>
+      <c r="AI54" s="0" t="n">
+        <f aca="false">SUM(Y54:AH54)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <f aca="false">B55*2.1</f>
         <v>7.37329992841804</v>
@@ -3923,8 +7124,46 @@
       <c r="I55" s="0" t="n">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N55" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>13800</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>18900</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <f aca="false">SUM(N55:W55)/10</f>
+        <v>13680</v>
+      </c>
+      <c r="AI55" s="0" t="n">
+        <f aca="false">SUM(Y55:AH55)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <f aca="false">B56*2.1</f>
         <v>7.31317108088761</v>
@@ -3956,8 +7195,46 @@
       <c r="I56" s="0" t="n">
         <v>7.09</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N56" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <f aca="false">SUM(N56:W56)/10</f>
+        <v>8940</v>
+      </c>
+      <c r="AI56" s="0" t="n">
+        <f aca="false">SUM(Y56:AH56)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <f aca="false">B57*2.1</f>
         <v>7.25304223335719</v>
@@ -3989,8 +7266,46 @@
       <c r="I57" s="0" t="n">
         <v>7.03</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N57" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>12600</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <v>12300</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <f aca="false">SUM(N57:W57)/10</f>
+        <v>13500</v>
+      </c>
+      <c r="AI57" s="0" t="n">
+        <f aca="false">SUM(Y57:AH57)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <f aca="false">B58*2.1</f>
         <v>7.19291338582677</v>
@@ -4022,8 +7337,46 @@
       <c r="I58" s="0" t="n">
         <v>6.96</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N58" s="0" t="n">
+        <v>13800</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>13800</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="W58" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="X58" s="0" t="n">
+        <f aca="false">SUM(N58:W58)/10</f>
+        <v>10530</v>
+      </c>
+      <c r="AI58" s="0" t="n">
+        <f aca="false">SUM(Y58:AH58)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <f aca="false">B59*2.1</f>
         <v>7.13278453829635</v>
@@ -4055,8 +7408,46 @@
       <c r="I59" s="0" t="n">
         <v>6.91</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N59" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>17100</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="X59" s="0" t="n">
+        <f aca="false">SUM(N59:W59)/10</f>
+        <v>16740</v>
+      </c>
+      <c r="AI59" s="0" t="n">
+        <f aca="false">SUM(Y59:AH59)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <f aca="false">B60*2.1</f>
         <v>7.07265569076593</v>
@@ -4088,8 +7479,46 @@
       <c r="I60" s="0" t="n">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N60" s="0" t="n">
+        <v>16200</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>24600</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>18900</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>17100</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>22500</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>22200</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <f aca="false">SUM(N60:W60)/10</f>
+        <v>18450</v>
+      </c>
+      <c r="AI60" s="0" t="n">
+        <f aca="false">SUM(Y60:AH60)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <f aca="false">B61*2.1</f>
         <v>7.0125268432355</v>
@@ -4121,8 +7550,46 @@
       <c r="I61" s="0" t="n">
         <v>6.77</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N61" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <f aca="false">SUM(N61:W61)/10</f>
+        <v>13710</v>
+      </c>
+      <c r="AI61" s="0" t="n">
+        <f aca="false">SUM(Y61:AH61)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <f aca="false">B62*2.1</f>
         <v>6.95239799570508</v>
@@ -4154,8 +7621,46 @@
       <c r="I62" s="0" t="n">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N62" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>11100</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="V62" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="W62" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <f aca="false">SUM(N62:W62)/10</f>
+        <v>10770</v>
+      </c>
+      <c r="AI62" s="0" t="n">
+        <f aca="false">SUM(Y62:AH62)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <f aca="false">B63*2.1</f>
         <v>6.89226914817466</v>
@@ -4187,8 +7692,46 @@
       <c r="I63" s="0" t="n">
         <v>6.59</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N63" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>12300</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <v>17100</v>
+      </c>
+      <c r="X63" s="0" t="n">
+        <f aca="false">SUM(N63:W63)/10</f>
+        <v>14130</v>
+      </c>
+      <c r="AI63" s="0" t="n">
+        <f aca="false">SUM(Y63:AH63)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <f aca="false">B64*2.1</f>
         <v>6.83214030064424</v>
@@ -4220,8 +7763,46 @@
       <c r="I64" s="0" t="n">
         <v>6.52</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N64" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>13800</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="T64" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="W64" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <f aca="false">SUM(N64:W64)/10</f>
+        <v>12450</v>
+      </c>
+      <c r="AI64" s="0" t="n">
+        <f aca="false">SUM(Y64:AH64)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <f aca="false">B65*2.1</f>
         <v>6.77201145311381</v>
@@ -4253,8 +7834,46 @@
       <c r="I65" s="0" t="n">
         <v>6.51</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N65" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="T65" s="0" t="n">
+        <v>21300</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="W65" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <f aca="false">SUM(N65:W65)/10</f>
+        <v>16110</v>
+      </c>
+      <c r="AI65" s="0" t="n">
+        <f aca="false">SUM(Y65:AH65)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <f aca="false">B66*2.1</f>
         <v>6.71188260558339</v>
@@ -4286,8 +7905,46 @@
       <c r="I66" s="0" t="n">
         <v>6.44</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N66" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>18900</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>26700</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>16200</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="W66" s="0" t="n">
+        <v>21300</v>
+      </c>
+      <c r="X66" s="0" t="n">
+        <f aca="false">SUM(N66:W66)/10</f>
+        <v>19170</v>
+      </c>
+      <c r="AI66" s="0" t="n">
+        <f aca="false">SUM(Y66:AH66)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <f aca="false">B67*2.1</f>
         <v>6.65175375805297</v>
@@ -4319,8 +7976,46 @@
       <c r="I67" s="0" t="n">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N67" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>18900</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>16800</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>25500</v>
+      </c>
+      <c r="S67" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>20100</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="X67" s="0" t="n">
+        <f aca="false">SUM(N67:W67)/10</f>
+        <v>17940</v>
+      </c>
+      <c r="AI67" s="0" t="n">
+        <f aca="false">SUM(Y67:AH67)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <f aca="false">B68*2.1</f>
         <v>6.59162491052255</v>
@@ -4352,8 +8047,46 @@
       <c r="I68" s="0" t="n">
         <v>6.28</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N68" s="0" t="n">
+        <v>21300</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>30900</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>32700</v>
+      </c>
+      <c r="S68" s="0" t="n">
+        <v>32100</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>26100</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <v>35100</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <v>31500</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <v>25800</v>
+      </c>
+      <c r="X68" s="0" t="n">
+        <f aca="false">SUM(N68:W68)/10</f>
+        <v>28320</v>
+      </c>
+      <c r="AI68" s="0" t="n">
+        <f aca="false">SUM(Y68:AH68)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <f aca="false">B69*2.1</f>
         <v>6.53149606299213</v>
@@ -4385,8 +8118,46 @@
       <c r="I69" s="0" t="n">
         <v>6.22</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N69" s="0" t="n">
+        <v>23400</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>17100</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>18600</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="S69" s="0" t="n">
+        <v>23700</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>21900</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <v>16200</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <v>21000</v>
+      </c>
+      <c r="W69" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="X69" s="0" t="n">
+        <f aca="false">SUM(N69:W69)/10</f>
+        <v>19050</v>
+      </c>
+      <c r="AI69" s="0" t="n">
+        <f aca="false">SUM(Y69:AH69)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <f aca="false">B70*2.1</f>
         <v>6.4713672154617</v>
@@ -4418,8 +8189,46 @@
       <c r="I70" s="0" t="n">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N70" s="0" t="n">
+        <v>18900</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>10200</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>16200</v>
+      </c>
+      <c r="S70" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="T70" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="U70" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="V70" s="0" t="n">
+        <v>21900</v>
+      </c>
+      <c r="W70" s="0" t="n">
+        <v>20100</v>
+      </c>
+      <c r="X70" s="0" t="n">
+        <f aca="false">SUM(N70:W70)/10</f>
+        <v>15240</v>
+      </c>
+      <c r="AI70" s="0" t="n">
+        <f aca="false">SUM(Y70:AH70)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <f aca="false">B71*2.1</f>
         <v>6.41123836793128</v>
@@ -4451,8 +8260,46 @@
       <c r="I71" s="0" t="n">
         <v>6.09</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N71" s="0" t="n">
+        <v>24600</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>23400</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="Q71" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>12300</v>
+      </c>
+      <c r="S71" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="T71" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="U71" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="V71" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="W71" s="0" t="n">
+        <v>11100</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <f aca="false">SUM(N71:W71)/10</f>
+        <v>16140</v>
+      </c>
+      <c r="AI71" s="0" t="n">
+        <f aca="false">SUM(Y71:AH71)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <f aca="false">B72*2.1</f>
         <v>6.35110952040086</v>
@@ -4484,8 +8331,46 @@
       <c r="I72" s="0" t="n">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N72" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>16200</v>
+      </c>
+      <c r="Q72" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="S72" s="0" t="n">
+        <v>12300</v>
+      </c>
+      <c r="T72" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="U72" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="V72" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="W72" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <f aca="false">SUM(N72:W72)/10</f>
+        <v>13800</v>
+      </c>
+      <c r="AI72" s="0" t="n">
+        <f aca="false">SUM(Y72:AH72)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <f aca="false">B73*2.1</f>
         <v>6.29098067287044</v>
@@ -4517,8 +8402,46 @@
       <c r="I73" s="0" t="n">
         <v>5.96</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N73" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q73" s="0" t="n">
+        <v>16200</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>11100</v>
+      </c>
+      <c r="W73" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="X73" s="0" t="n">
+        <f aca="false">SUM(N73:W73)/10</f>
+        <v>15420</v>
+      </c>
+      <c r="AI73" s="0" t="n">
+        <f aca="false">SUM(Y73:AH73)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <f aca="false">B74*2.1</f>
         <v>6.23085182534001</v>
@@ -4550,8 +8473,46 @@
       <c r="I74" s="0" t="n">
         <v>5.89</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N74" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>10200</v>
+      </c>
+      <c r="S74" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <v>16800</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>17400</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>18900</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <f aca="false">SUM(N74:W74)/10</f>
+        <v>14430</v>
+      </c>
+      <c r="AI74" s="0" t="n">
+        <f aca="false">SUM(Y74:AH74)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <f aca="false">B75*2.1</f>
         <v>6.17072297780959</v>
@@ -4583,8 +8544,46 @@
       <c r="I75" s="0" t="n">
         <v>5.82</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N75" s="0" t="n">
+        <v>16800</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="S75" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>24900</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>22500</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <f aca="false">SUM(N75:W75)/10</f>
+        <v>18360</v>
+      </c>
+      <c r="AI75" s="0" t="n">
+        <f aca="false">SUM(Y75:AH75)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <f aca="false">B76*2.1</f>
         <v>6.11059413027917</v>
@@ -4616,8 +8615,46 @@
       <c r="I76" s="0" t="n">
         <v>5.76</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N76" s="0" t="n">
+        <v>20400</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>19800</v>
+      </c>
+      <c r="S76" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>12600</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="V76" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <v>17100</v>
+      </c>
+      <c r="X76" s="0" t="n">
+        <f aca="false">SUM(N76:W76)/10</f>
+        <v>15720</v>
+      </c>
+      <c r="AI76" s="0" t="n">
+        <f aca="false">SUM(Y76:AH76)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <f aca="false">B77*2.1</f>
         <v>6.05046528274875</v>
@@ -4649,8 +8686,46 @@
       <c r="I77" s="0" t="n">
         <v>5.69</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N77" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q77" s="0" t="n">
+        <v>20100</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>20700</v>
+      </c>
+      <c r="S77" s="0" t="n">
+        <v>20100</v>
+      </c>
+      <c r="T77" s="0" t="n">
+        <v>19200</v>
+      </c>
+      <c r="U77" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="V77" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="W77" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="X77" s="0" t="n">
+        <f aca="false">SUM(N77:W77)/10</f>
+        <v>16770</v>
+      </c>
+      <c r="AI77" s="0" t="n">
+        <f aca="false">SUM(Y77:AH77)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <f aca="false">B78*2.1</f>
         <v>5.99033643521832</v>
@@ -4682,8 +8757,46 @@
       <c r="I78" s="0" t="n">
         <v>5.62</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N78" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>16500</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <v>15300</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="S78" s="0" t="n">
+        <v>14400</v>
+      </c>
+      <c r="T78" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="U78" s="0" t="n">
+        <v>15900</v>
+      </c>
+      <c r="V78" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="W78" s="0" t="n">
+        <v>17100</v>
+      </c>
+      <c r="X78" s="0" t="n">
+        <f aca="false">SUM(N78:W78)/10</f>
+        <v>14850</v>
+      </c>
+      <c r="AI78" s="0" t="n">
+        <f aca="false">SUM(Y78:AH78)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <f aca="false">B79*2.1</f>
         <v>5.9302075876879</v>
@@ -4715,8 +8828,46 @@
       <c r="I79" s="0" t="n">
         <v>5.56</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N79" s="0" t="n">
+        <v>17700</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>16800</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q79" s="0" t="n">
+        <v>14100</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>15600</v>
+      </c>
+      <c r="S79" s="0" t="n">
+        <v>10200</v>
+      </c>
+      <c r="T79" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="U79" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="V79" s="0" t="n">
+        <v>16200</v>
+      </c>
+      <c r="W79" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="X79" s="0" t="n">
+        <f aca="false">SUM(N79:W79)/10</f>
+        <v>14700</v>
+      </c>
+      <c r="AI79" s="0" t="n">
+        <f aca="false">SUM(Y79:AH79)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <f aca="false">B80*2.1</f>
         <v>5.87007874015748</v>
@@ -4748,8 +8899,46 @@
       <c r="I80" s="0" t="n">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N80" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>12600</v>
+      </c>
+      <c r="S80" s="0" t="n">
+        <v>12600</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <v>13800</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <v>10200</v>
+      </c>
+      <c r="X80" s="0" t="n">
+        <f aca="false">SUM(N80:W80)/10</f>
+        <v>10920</v>
+      </c>
+      <c r="AI80" s="0" t="n">
+        <f aca="false">SUM(Y80:AH80)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <f aca="false">B81*2.1</f>
         <v>5.80994989262706</v>
@@ -4781,8 +8970,46 @@
       <c r="I81" s="0" t="n">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N81" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>10200</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="X81" s="0" t="n">
+        <f aca="false">SUM(N81:W81)/10</f>
+        <v>9000</v>
+      </c>
+      <c r="AI81" s="0" t="n">
+        <f aca="false">SUM(Y81:AH81)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <f aca="false">B82*2.1</f>
         <v>5.74982104509664</v>
@@ -4814,8 +9041,46 @@
       <c r="I82" s="0" t="n">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N82" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="S82" s="0" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="X82" s="0" t="n">
+        <f aca="false">SUM(N82:W82)/10</f>
+        <v>7650</v>
+      </c>
+      <c r="AI82" s="0" t="n">
+        <f aca="false">SUM(Y82:AH82)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <f aca="false">B83*2.1</f>
         <v>5.68969219756621</v>
@@ -4847,8 +9112,46 @@
       <c r="I83" s="0" t="n">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N83" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S83" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T83" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="W83" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="X83" s="0" t="n">
+        <f aca="false">SUM(N83:W83)/10</f>
+        <v>7230</v>
+      </c>
+      <c r="AI83" s="0" t="n">
+        <f aca="false">SUM(Y83:AH83)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <f aca="false">B84*2.1</f>
         <v>5.62956335003579</v>
@@ -4880,8 +9183,46 @@
       <c r="I84" s="0" t="n">
         <v>5.24</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N84" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="S84" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="T84" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="W84" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="X84" s="0" t="n">
+        <f aca="false">SUM(N84:W84)/10</f>
+        <v>4860</v>
+      </c>
+      <c r="AI84" s="0" t="n">
+        <f aca="false">SUM(Y84:AH84)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <f aca="false">B85*2.1</f>
         <v>5.56943450250537</v>
@@ -4913,8 +9254,46 @@
       <c r="I85" s="0" t="n">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N85" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="Q85" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="S85" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="T85" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="V85" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="W85" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X85" s="0" t="n">
+        <f aca="false">SUM(N85:W85)/10</f>
+        <v>6360</v>
+      </c>
+      <c r="AI85" s="0" t="n">
+        <f aca="false">SUM(Y85:AH85)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <f aca="false">B86*2.1</f>
         <v>5.50930565497495</v>
@@ -4946,8 +9325,46 @@
       <c r="I86" s="0" t="n">
         <v>5.11</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N86" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q86" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="S86" s="0" t="n">
+        <v>10200</v>
+      </c>
+      <c r="T86" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="U86" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="V86" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="W86" s="0" t="n">
+        <v>12600</v>
+      </c>
+      <c r="X86" s="0" t="n">
+        <f aca="false">SUM(N86:W86)/10</f>
+        <v>8340</v>
+      </c>
+      <c r="AI86" s="0" t="n">
+        <f aca="false">SUM(Y86:AH86)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <f aca="false">B87*2.1</f>
         <v>5.44917680744452</v>
@@ -4979,8 +9396,46 @@
       <c r="I87" s="0" t="n">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N87" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <v>12600</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="S87" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="T87" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="U87" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="V87" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="W87" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="X87" s="0" t="n">
+        <f aca="false">SUM(N87:W87)/10</f>
+        <v>7620</v>
+      </c>
+      <c r="AI87" s="0" t="n">
+        <f aca="false">SUM(Y87:AH87)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <f aca="false">B88*2.1</f>
         <v>5.3890479599141</v>
@@ -5012,8 +9467,46 @@
       <c r="I88" s="0" t="n">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N88" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="O88" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P88" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="S88" s="0" t="n">
+        <v>10200</v>
+      </c>
+      <c r="T88" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="U88" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="V88" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="W88" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="X88" s="0" t="n">
+        <f aca="false">SUM(N88:W88)/10</f>
+        <v>6570</v>
+      </c>
+      <c r="AI88" s="0" t="n">
+        <f aca="false">SUM(Y88:AH88)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <f aca="false">B89*2.1</f>
         <v>5.32891911238368</v>
@@ -5045,8 +9538,46 @@
       <c r="I89" s="0" t="n">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N89" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="O89" s="0" t="n">
+        <v>11100</v>
+      </c>
+      <c r="P89" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="Q89" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="R89" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="S89" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="T89" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="U89" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="V89" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W89" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="X89" s="0" t="n">
+        <f aca="false">SUM(N89:W89)/10</f>
+        <v>6060</v>
+      </c>
+      <c r="AI89" s="0" t="n">
+        <f aca="false">SUM(Y89:AH89)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <f aca="false">B90*2.1</f>
         <v>5.26879026485326</v>
@@ -5078,8 +9609,46 @@
       <c r="I90" s="0" t="n">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N90" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="S90" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="T90" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="U90" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="V90" s="0" t="n">
+        <v>12300</v>
+      </c>
+      <c r="W90" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="X90" s="0" t="n">
+        <f aca="false">SUM(N90:W90)/10</f>
+        <v>8820</v>
+      </c>
+      <c r="AI90" s="0" t="n">
+        <f aca="false">SUM(Y90:AH90)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <f aca="false">B91*2.1</f>
         <v>5.20866141732283</v>
@@ -5111,8 +9680,46 @@
       <c r="I91" s="0" t="n">
         <v>4.82</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N91" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S91" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T91" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="V91" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W91" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="X91" s="0" t="n">
+        <f aca="false">SUM(N91:W91)/10</f>
+        <v>4380</v>
+      </c>
+      <c r="AI91" s="0" t="n">
+        <f aca="false">SUM(Y91:AH91)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <f aca="false">B92*2.1</f>
         <v>5.14853256979241</v>
@@ -5144,8 +9751,46 @@
       <c r="I92" s="0" t="n">
         <v>4.77</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N92" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S92" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="T92" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="U92" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="V92" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="W92" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X92" s="0" t="n">
+        <f aca="false">SUM(N92:W92)/10</f>
+        <v>3360</v>
+      </c>
+      <c r="AI92" s="0" t="n">
+        <f aca="false">SUM(Y92:AH92)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <f aca="false">B93*2.1</f>
         <v>5.08840372226199</v>
@@ -5177,8 +9822,46 @@
       <c r="I93" s="0" t="n">
         <v>4.71</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N93" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="O93" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P93" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="S93" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T93" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="U93" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="V93" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="W93" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="X93" s="0" t="n">
+        <f aca="false">SUM(N93:W93)/10</f>
+        <v>5700</v>
+      </c>
+      <c r="AI93" s="0" t="n">
+        <f aca="false">SUM(Y93:AH93)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <f aca="false">B94*2.1</f>
         <v>5.02827487473157</v>
@@ -5210,8 +9893,46 @@
       <c r="I94" s="0" t="n">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N94" s="0" t="n">
+        <v>10800</v>
+      </c>
+      <c r="O94" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="P94" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="S94" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="T94" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="U94" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="V94" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="W94" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="X94" s="0" t="n">
+        <f aca="false">SUM(N94:W94)/10</f>
+        <v>8460</v>
+      </c>
+      <c r="AI94" s="0" t="n">
+        <f aca="false">SUM(Y94:AH94)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <f aca="false">B95*2.1</f>
         <v>4.96814602720115</v>
@@ -5243,8 +9964,46 @@
       <c r="I95" s="0" t="n">
         <v>4.59</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N95" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="O95" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="P95" s="0" t="n">
+        <v>10200</v>
+      </c>
+      <c r="Q95" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="S95" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="T95" s="0" t="n">
+        <v>14700</v>
+      </c>
+      <c r="U95" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="V95" s="0" t="n">
+        <v>11700</v>
+      </c>
+      <c r="W95" s="0" t="n">
+        <v>11100</v>
+      </c>
+      <c r="X95" s="0" t="n">
+        <f aca="false">SUM(N95:W95)/10</f>
+        <v>10560</v>
+      </c>
+      <c r="AI95" s="0" t="n">
+        <f aca="false">SUM(Y95:AH95)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <f aca="false">B96*2.1</f>
         <v>4.90801717967072</v>
@@ -5276,8 +10035,46 @@
       <c r="I96" s="0" t="n">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N96" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="O96" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="P96" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="S96" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="T96" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="U96" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="V96" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="W96" s="0" t="n">
+        <v>11400</v>
+      </c>
+      <c r="X96" s="0" t="n">
+        <f aca="false">SUM(N96:W96)/10</f>
+        <v>7470</v>
+      </c>
+      <c r="AI96" s="0" t="n">
+        <f aca="false">SUM(Y96:AH96)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <f aca="false">B97*2.1</f>
         <v>4.8478883321403</v>
@@ -5309,8 +10106,46 @@
       <c r="I97" s="0" t="n">
         <v>4.47</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N97" s="0" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O97" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P97" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="Q97" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="S97" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T97" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="U97" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="V97" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="W97" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="X97" s="0" t="n">
+        <f aca="false">SUM(N97:W97)/10</f>
+        <v>5700</v>
+      </c>
+      <c r="AI97" s="0" t="n">
+        <f aca="false">SUM(Y97:AH97)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <f aca="false">B98*2.1</f>
         <v>4.78775948460988</v>
@@ -5342,8 +10177,46 @@
       <c r="I98" s="0" t="n">
         <v>4.41</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N98" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="P98" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="Q98" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="R98" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="S98" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="T98" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="U98" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="V98" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="W98" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="X98" s="0" t="n">
+        <f aca="false">SUM(N98:W98)/10</f>
+        <v>6930</v>
+      </c>
+      <c r="AI98" s="0" t="n">
+        <f aca="false">SUM(Y98:AH98)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <f aca="false">B99*2.1</f>
         <v>4.72763063707946</v>
@@ -5375,8 +10248,46 @@
       <c r="I99" s="0" t="n">
         <v>4.35</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N99" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P99" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="Q99" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="R99" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="S99" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T99" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="U99" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="V99" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="W99" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="X99" s="0" t="n">
+        <f aca="false">SUM(N99:W99)/10</f>
+        <v>5760</v>
+      </c>
+      <c r="AI99" s="0" t="n">
+        <f aca="false">SUM(Y99:AH99)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <f aca="false">B100*2.1</f>
         <v>4.66750178954903</v>
@@ -5408,8 +10319,46 @@
       <c r="I100" s="0" t="n">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N100" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="P100" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="Q100" s="0" t="n">
+        <v>9600</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="S100" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="T100" s="0" t="n">
+        <v>11100</v>
+      </c>
+      <c r="U100" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="V100" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="W100" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="X100" s="0" t="n">
+        <f aca="false">SUM(N100:W100)/10</f>
+        <v>8190</v>
+      </c>
+      <c r="AI100" s="0" t="n">
+        <f aca="false">SUM(Y100:AH100)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <f aca="false">B101*2.1</f>
         <v>4.60737294201861</v>
@@ -5441,8 +10390,46 @@
       <c r="I101" s="0" t="n">
         <v>4.23</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N101" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="O101" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="P101" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="Q101" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="S101" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="T101" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U101" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="V101" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="W101" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X101" s="0" t="n">
+        <f aca="false">SUM(N101:W101)/10</f>
+        <v>5370</v>
+      </c>
+      <c r="AI101" s="0" t="n">
+        <f aca="false">SUM(Y101:AH101)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <f aca="false">B102*2.1</f>
         <v>4.54724409448819</v>
@@ -5474,8 +10461,46 @@
       <c r="I102" s="0" t="n">
         <v>4.17</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N102" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="O102" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="P102" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q102" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="R102" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="S102" s="0" t="n">
+        <v>7200</v>
+      </c>
+      <c r="T102" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="U102" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="V102" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="W102" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="X102" s="0" t="n">
+        <f aca="false">SUM(N102:W102)/10</f>
+        <v>5010</v>
+      </c>
+      <c r="AI102" s="0" t="n">
+        <f aca="false">SUM(Y102:AH102)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <f aca="false">B103*2.1</f>
         <v>4.48711524695777</v>
@@ -5507,8 +10532,46 @@
       <c r="I103" s="0" t="n">
         <v>4.11</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N103" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="O103" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="P103" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q103" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R103" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="S103" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T103" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="U103" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="V103" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="W103" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="X103" s="0" t="n">
+        <f aca="false">SUM(N103:W103)/10</f>
+        <v>4290</v>
+      </c>
+      <c r="AI103" s="0" t="n">
+        <f aca="false">SUM(Y103:AH103)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <f aca="false">B104*2.1</f>
         <v>4.42698639942734</v>
@@ -5540,8 +10603,46 @@
       <c r="I104" s="0" t="n">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N104" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O104" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="P104" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="Q104" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="S104" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="T104" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="U104" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="V104" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W104" s="0" t="n">
+        <v>9300</v>
+      </c>
+      <c r="X104" s="0" t="n">
+        <f aca="false">SUM(N104:W104)/10</f>
+        <v>5610</v>
+      </c>
+      <c r="AI104" s="0" t="n">
+        <f aca="false">SUM(Y104:AH104)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <f aca="false">B105*2.1</f>
         <v>4.36685755189692</v>
@@ -5573,8 +10674,46 @@
       <c r="I105" s="0" t="n">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N105" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="O105" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P105" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Q105" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R105" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="S105" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="T105" s="0" t="n">
+        <v>6300</v>
+      </c>
+      <c r="U105" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="V105" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="W105" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="X105" s="0" t="n">
+        <f aca="false">SUM(N105:W105)/10</f>
+        <v>4770</v>
+      </c>
+      <c r="AI105" s="0" t="n">
+        <f aca="false">SUM(Y105:AH105)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <f aca="false">B106*2.1</f>
         <v>4.3067287043665</v>
@@ -5606,8 +10745,46 @@
       <c r="I106" s="0" t="n">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N106" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <v>8700</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="S106" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="T106" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="U106" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="V106" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="W106" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="X106" s="0" t="n">
+        <f aca="false">SUM(N106:W106)/10</f>
+        <v>4740</v>
+      </c>
+      <c r="AI106" s="0" t="n">
+        <f aca="false">SUM(Y106:AH106)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <f aca="false">B107*2.1</f>
         <v>4.24659985683608</v>
@@ -5639,8 +10816,46 @@
       <c r="I107" s="0" t="n">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N107" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <v>8400</v>
+      </c>
+      <c r="S107" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="T107" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <v>7800</v>
+      </c>
+      <c r="V107" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="W107" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="X107" s="0" t="n">
+        <f aca="false">SUM(N107:W107)/10</f>
+        <v>5610</v>
+      </c>
+      <c r="AI107" s="0" t="n">
+        <f aca="false">SUM(Y107:AH107)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <f aca="false">B108*2.1</f>
         <v>4.18647100930566</v>
@@ -5672,8 +10887,46 @@
       <c r="I108" s="0" t="n">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N108" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="O108" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P108" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Q108" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="S108" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="T108" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U108" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="V108" s="0" t="n">
+        <v>6900</v>
+      </c>
+      <c r="W108" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X108" s="0" t="n">
+        <f aca="false">SUM(N108:W108)/10</f>
+        <v>3240</v>
+      </c>
+      <c r="AI108" s="0" t="n">
+        <f aca="false">SUM(Y108:AH108)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <f aca="false">B109*2.1</f>
         <v>4.12634216177523</v>
@@ -5705,8 +10958,46 @@
       <c r="I109" s="0" t="n">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N109" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="O109" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="P109" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="Q109" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="R109" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="S109" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="T109" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="U109" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="V109" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="W109" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="X109" s="0" t="n">
+        <f aca="false">SUM(N109:W109)/10</f>
+        <v>3750</v>
+      </c>
+      <c r="AI109" s="0" t="n">
+        <f aca="false">SUM(Y109:AH109)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <f aca="false">B110*2.1</f>
         <v>4.06621331424481</v>
@@ -5738,8 +11029,46 @@
       <c r="I110" s="0" t="n">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N110" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="O110" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="P110" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q110" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R110" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S110" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="T110" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="U110" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="V110" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="W110" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="X110" s="0" t="n">
+        <f aca="false">SUM(N110:W110)/10</f>
+        <v>3750</v>
+      </c>
+      <c r="AI110" s="0" t="n">
+        <f aca="false">SUM(Y110:AH110)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <f aca="false">B111*2.1</f>
         <v>4.00608446671439</v>
@@ -5771,8 +11100,46 @@
       <c r="I111" s="0" t="n">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N111" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O111" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="P111" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="Q111" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R111" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S111" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="T111" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="U111" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="V111" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="W111" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="X111" s="0" t="n">
+        <f aca="false">SUM(N111:W111)/10</f>
+        <v>3450</v>
+      </c>
+      <c r="AI111" s="0" t="n">
+        <f aca="false">SUM(Y111:AH111)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <f aca="false">B112*2.1</f>
         <v>3.94595561918397</v>
@@ -5804,8 +11171,46 @@
       <c r="I112" s="0" t="n">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N112" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="O112" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="P112" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="Q112" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R112" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S112" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="T112" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="U112" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="V112" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="W112" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X112" s="0" t="n">
+        <f aca="false">SUM(N112:W112)/10</f>
+        <v>2760</v>
+      </c>
+      <c r="AI112" s="0" t="n">
+        <f aca="false">SUM(Y112:AH112)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <f aca="false">B113*2.1</f>
         <v>3.88582677165354</v>
@@ -5837,8 +11242,46 @@
       <c r="I113" s="0" t="n">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N113" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="O113" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="P113" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Q113" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R113" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="S113" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T113" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="U113" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="V113" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="W113" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X113" s="0" t="n">
+        <f aca="false">SUM(N113:W113)/10</f>
+        <v>1950</v>
+      </c>
+      <c r="AI113" s="0" t="n">
+        <f aca="false">SUM(Y113:AH113)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <f aca="false">B114*2.1</f>
         <v>3.82569792412312</v>
@@ -5870,8 +11313,46 @@
       <c r="I114" s="0" t="n">
         <v>3.38</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N114" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="P114" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q114" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="R114" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="S114" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="T114" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="U114" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="V114" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="W114" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="X114" s="0" t="n">
+        <f aca="false">SUM(N114:W114)/10</f>
+        <v>3030</v>
+      </c>
+      <c r="AI114" s="0" t="n">
+        <f aca="false">SUM(Y114:AH114)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <f aca="false">B115*2.1</f>
         <v>3.7655690765927</v>
@@ -5903,8 +11384,46 @@
       <c r="I115" s="0" t="n">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N115" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="P115" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="Q115" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R115" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="S115" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="T115" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="V115" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="X115" s="0" t="n">
+        <f aca="false">SUM(N115:W115)/10</f>
+        <v>3120</v>
+      </c>
+      <c r="AI115" s="0" t="n">
+        <f aca="false">SUM(Y115:AH115)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <f aca="false">B116*2.1</f>
         <v>3.70544022906228</v>
@@ -5936,8 +11455,46 @@
       <c r="I116" s="0" t="n">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N116" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="O116" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P116" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="Q116" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R116" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S116" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="T116" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U116" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="V116" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="W116" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="X116" s="0" t="n">
+        <f aca="false">SUM(N116:W116)/10</f>
+        <v>4080</v>
+      </c>
+      <c r="AI116" s="0" t="n">
+        <f aca="false">SUM(Y116:AH116)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <f aca="false">B117*2.1</f>
         <v>3.64531138153185</v>
@@ -5969,8 +11526,46 @@
       <c r="I117" s="0" t="n">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N117" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="Q117" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="S117" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="T117" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="U117" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="V117" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="W117" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="X117" s="0" t="n">
+        <f aca="false">SUM(N117:W117)/10</f>
+        <v>4290</v>
+      </c>
+      <c r="AI117" s="0" t="n">
+        <f aca="false">SUM(Y117:AH117)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <f aca="false">B118*2.1</f>
         <v>3.58518253400143</v>
@@ -6002,8 +11597,46 @@
       <c r="I118" s="0" t="n">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N118" s="0" t="n">
+        <v>8100</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="Q118" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R118" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="S118" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="T118" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="U118" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <v>5400</v>
+      </c>
+      <c r="W118" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="X118" s="0" t="n">
+        <f aca="false">SUM(N118:W118)/10</f>
+        <v>4620</v>
+      </c>
+      <c r="AI118" s="0" t="n">
+        <f aca="false">SUM(Y118:AH118)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <f aca="false">B119*2.1</f>
         <v>3.52505368647101</v>
@@ -6035,8 +11668,46 @@
       <c r="I119" s="0" t="n">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N119" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q119" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="S119" s="0" t="n">
+        <v>6600</v>
+      </c>
+      <c r="T119" s="0" t="n">
+        <v>5100</v>
+      </c>
+      <c r="U119" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="V119" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="W119" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="X119" s="0" t="n">
+        <f aca="false">SUM(N119:W119)/10</f>
+        <v>3540</v>
+      </c>
+      <c r="AI119" s="0" t="n">
+        <f aca="false">SUM(Y119:AH119)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <f aca="false">B120*2.1</f>
         <v>3.46492483894059</v>
@@ -6068,8 +11739,46 @@
       <c r="I120" s="0" t="n">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N120" s="0" t="n">
+        <v>4200</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <v>3900</v>
+      </c>
+      <c r="Q120" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R120" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S120" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="T120" s="0" t="n">
+        <v>5700</v>
+      </c>
+      <c r="U120" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <v>3300</v>
+      </c>
+      <c r="W120" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="X120" s="0" t="n">
+        <f aca="false">SUM(N120:W120)/10</f>
+        <v>3450</v>
+      </c>
+      <c r="AI120" s="0" t="n">
+        <f aca="false">SUM(Y120:AH120)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <f aca="false">B121*2.1</f>
         <v>3.40479599141016</v>
@@ -6101,8 +11810,46 @@
       <c r="I121" s="0" t="n">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N121" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S121" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="T121" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="W121" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X121" s="0" t="n">
+        <f aca="false">SUM(N121:W121)/10</f>
+        <v>2640</v>
+      </c>
+      <c r="AI121" s="0" t="n">
+        <f aca="false">SUM(Y121:AH121)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <f aca="false">B122*2.1</f>
         <v>3.34466714387974</v>
@@ -6134,8 +11881,46 @@
       <c r="I122" s="0" t="n">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N122" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q122" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="S122" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="T122" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="V122" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="W122" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="X122" s="0" t="n">
+        <f aca="false">SUM(N122:W122)/10</f>
+        <v>1710</v>
+      </c>
+      <c r="AI122" s="0" t="n">
+        <f aca="false">SUM(Y122:AH122)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <f aca="false">B123*2.1</f>
         <v>3.28453829634932</v>
@@ -6167,8 +11952,46 @@
       <c r="I123" s="0" t="n">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N123" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S123" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="T123" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="V123" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="W123" s="0" t="n">
+        <v>4500</v>
+      </c>
+      <c r="X123" s="0" t="n">
+        <f aca="false">SUM(N123:W123)/10</f>
+        <v>1530</v>
+      </c>
+      <c r="AI123" s="0" t="n">
+        <f aca="false">SUM(Y123:AH123)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <f aca="false">B124*2.1</f>
         <v>3.2244094488189</v>
@@ -6200,8 +12023,46 @@
       <c r="I124" s="0" t="n">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N124" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="O124" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="P124" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Q124" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="S124" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T124" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="U124" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="V124" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="W124" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X124" s="0" t="n">
+        <f aca="false">SUM(N124:W124)/10</f>
+        <v>1680</v>
+      </c>
+      <c r="AI124" s="0" t="n">
+        <f aca="false">SUM(Y124:AH124)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <f aca="false">B125*2.1</f>
         <v>3.16428060128848</v>
@@ -6233,8 +12094,46 @@
       <c r="I125" s="0" t="n">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N125" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="O125" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="P125" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q125" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="R125" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="S125" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="T125" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="U125" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="V125" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="W125" s="0" t="n">
+        <v>4800</v>
+      </c>
+      <c r="X125" s="0" t="n">
+        <f aca="false">SUM(N125:W125)/10</f>
+        <v>2130</v>
+      </c>
+      <c r="AI125" s="0" t="n">
+        <f aca="false">SUM(Y125:AH125)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <f aca="false">B126*2.1</f>
         <v>3.10415175375805</v>
@@ -6266,8 +12165,46 @@
       <c r="I126" s="0" t="n">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N126" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="O126" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="P126" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q126" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R126" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="S126" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T126" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="U126" s="0" t="n">
+        <v>2700</v>
+      </c>
+      <c r="V126" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="W126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" s="0" t="n">
+        <f aca="false">SUM(N126:W126)/10</f>
+        <v>1530</v>
+      </c>
+      <c r="AI126" s="0" t="n">
+        <f aca="false">SUM(Y126:AH126)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <f aca="false">B127*2.1</f>
         <v>3.04402290622763</v>
@@ -6299,8 +12236,46 @@
       <c r="I127" s="0" t="n">
         <v>2.53</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="P127" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q127" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="R127" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="S127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="V127" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="W127" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="X127" s="0" t="n">
+        <f aca="false">SUM(N127:W127)/10</f>
+        <v>1050</v>
+      </c>
+      <c r="AI127" s="0" t="n">
+        <f aca="false">SUM(Y127:AH127)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <f aca="false">B128*2.1</f>
         <v>2.98389405869721</v>
@@ -6332,8 +12307,46 @@
       <c r="I128" s="0" t="n">
         <v>2.47</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N128" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="O128" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="P128" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q128" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="R128" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="S128" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="V128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" s="0" t="n">
+        <f aca="false">SUM(N128:W128)/10</f>
+        <v>660</v>
+      </c>
+      <c r="AI128" s="0" t="n">
+        <f aca="false">SUM(Y128:AH128)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <f aca="false">B129*2.1</f>
         <v>2.92376521116678</v>
@@ -6365,8 +12378,46 @@
       <c r="I129" s="0" t="n">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N129" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="O129" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q129" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="R129" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="S129" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T129" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="U129" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V129" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="W129" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="X129" s="0" t="n">
+        <f aca="false">SUM(N129:W129)/10</f>
+        <v>870</v>
+      </c>
+      <c r="AI129" s="0" t="n">
+        <f aca="false">SUM(Y129:AH129)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <f aca="false">B130*2.1</f>
         <v>2.86363636363636</v>
@@ -6398,11 +12449,51 @@
       <c r="I130" s="0" t="n">
         <v>2.33</v>
       </c>
+      <c r="N130" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="O130" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="P130" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Q130" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="S130" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T130" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="V130" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="W130" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X130" s="0" t="n">
+        <f aca="false">SUM(N130:W130)/10</f>
+        <v>1860</v>
+      </c>
+      <c r="AI130" s="0" t="n">
+        <f aca="false">SUM(Y130:AH130)/10</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="Y1:AI1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
